--- a/biology/Médecine/Pierre_Pena/Pierre_Pena.xlsx
+++ b/biology/Médecine/Pierre_Pena/Pierre_Pena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Pena (1535-1620) est un médecin, botaniste et écrivain français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'ancienne famille provençale, il naît vers 1535 à Jouques[1].
-Il fait ses études à l'université de Montpellier, où il rencontre le Flamand Matthias de l'Obel, avec qui il voyage en Italie. En 1571, tous deux publient, à Londres, un ouvrage de botanique[2].
-Il aurait été le médecin secret de Henri III[3].
-En 1581, dans un acte notarié, il est dit médecin de la reine-mère[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'ancienne famille provençale, il naît vers 1535 à Jouques.
+Il fait ses études à l'université de Montpellier, où il rencontre le Flamand Matthias de l'Obel, avec qui il voyage en Italie. En 1571, tous deux publient, à Londres, un ouvrage de botanique.
+Il aurait été le médecin secret de Henri III.
+En 1581, dans un acte notarié, il est dit médecin de la reine-mère.
 En 1610, il signe  le procès-verbal de l'autopsie d'Henri IV.
 Il fut aussi le médecin de Louis XIII.
 Gaspard Tronchay lui dédia une complainte à Dieu en 262 vers.
@@ -548,10 +562,12 @@
           <t>Sources partielles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Paul Delaunay, Vieux médecins mayennais [1]</t>
+Paul Delaunay, Vieux médecins mayennais </t>
         </is>
       </c>
     </row>
